--- a/設計書/01_基本設計（外部設計）/03_ユーザインタフェース設計/01_画面設計/DM002_ユーザ登録画面.xlsx
+++ b/設計書/01_基本設計（外部設計）/03_ユーザインタフェース設計/01_画面設計/DM002_ユーザ登録画面.xlsx
@@ -5287,6 +5287,66 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>347383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>392206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2207559" y="2622177"/>
+          <a:ext cx="8897471" cy="4078941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>要見直し</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -5376,7 +5436,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9847,6 +9907,7 @@
     <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
     <oddFooter>&amp;RAll Rights Reserved, Copyright © ○○○○○株式会社 2016</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -22831,9 +22892,7 @@
   </sheetPr>
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -30243,9 +30302,6 @@
     <row r="59" spans="1:52" s="6" customFormat="1" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
     <mergeCell ref="A4:AL4"/>
     <mergeCell ref="AM4:AZ4"/>
     <mergeCell ref="AX1:AZ1"/>
@@ -30262,6 +30318,9 @@
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="S3:AF3"/>
     <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
